--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460AD904-AA42-47B5-A500-2D952EED7DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E78BA2-3111-4E77-A9C2-0D83AB6113CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
+    <workbookView xWindow="4245" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,15 +52,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1,1</t>
+    <t>101,3001</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>101,102</t>
+    <t>4,1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1,2,3,4,0</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -454,10 +454,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -481,10 +484,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -498,9 +501,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,25 +624,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -658,9 +654,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E78BA2-3111-4E77-A9C2-0D83AB6113CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C9105D-0286-4799-97BF-3634B6F4BA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
+    <workbookView xWindow="2550" yWindow="1845" windowWidth="24525" windowHeight="12975" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -61,6 +62,38 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイドの設定ファイルです。</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stepリスト（GuideStep）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイド場合アイテム</t>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの数</t>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -68,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,21 +117,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -107,11 +192,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,7 +548,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -500,16 +594,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76512A8B-B894-423A-86BD-720DB413CD9F}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002F05D575A7C71C4E84A77B4956DCA319" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="856dbde25e5687c921078643b2720f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95f901de96e08fa8539d13b04facf32f">
     <xsd:element name="properties">
@@ -623,6 +773,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -630,14 +789,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B3C5EE-D255-4E0F-A081-8B494CED0A1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -649,6 +800,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C9105D-0286-4799-97BF-3634B6F4BA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA9775-BE62-4B7C-AB05-CFC6B817B570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1845" windowWidth="24525" windowHeight="12975" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
+    <workbookView xWindow="6060" yWindow="1320" windowWidth="24525" windowHeight="12975" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -58,10 +58,6 @@
   </si>
   <si>
     <t>4,1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -94,6 +90,22 @@
     <rPh sb="5" eb="6">
       <t>カズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -236,8 +248,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED7907A0-E463-4F84-A5A3-C286AB3F5E0A}" name="テーブル1" displayName="テーブル1" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{ED7907A0-E463-4F84-A5A3-C286AB3F5E0A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED7907A0-E463-4F84-A5A3-C286AB3F5E0A}" name="テーブル1" displayName="テーブル1" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{ED7907A0-E463-4F84-A5A3-C286AB3F5E0A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{615FF43F-1044-4D2B-9BCE-712D5DA44796}" name="ID"/>
     <tableColumn id="2" xr3:uid="{EDBBF547-8961-4C19-813A-AA8CB0CDA5D3}" name="StepList" dataDxfId="2"/>
@@ -545,15 +557,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CA373A-5204-463A-B9AB-C528F6DE220D}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -575,13 +587,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -619,7 +645,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -629,7 +655,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -639,7 +665,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -649,7 +675,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -660,6 +686,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002F05D575A7C71C4E84A77B4956DCA319" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="856dbde25e5687c921078643b2720f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95f901de96e08fa8539d13b04facf32f">
     <xsd:element name="properties">
@@ -773,22 +814,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B3C5EE-D255-4E0F-A081-8B494CED0A1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -802,27 +851,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA9775-BE62-4B7C-AB05-CFC6B817B570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CE9E1-1B0A-4FC3-933A-F9F2FCABE005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="1320" windowWidth="24525" windowHeight="12975" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16605" windowHeight="15000" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3002</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -105,7 +101,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,0</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -560,7 +560,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -686,12 +686,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -700,7 +694,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002F05D575A7C71C4E84A77B4956DCA319" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="856dbde25e5687c921078643b2720f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95f901de96e08fa8539d13b04facf32f">
     <xsd:element name="properties">
@@ -814,22 +808,13 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -837,7 +822,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B3C5EE-D255-4E0F-A081-8B494CED0A1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -851,4 +836,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CE9E1-1B0A-4FC3-933A-F9F2FCABE005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473A2E42-007B-4479-86BD-BD70B87021A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16605" windowHeight="15000" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -105,7 +103,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,0</t>
+    <t>39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -560,7 +558,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -686,12 +684,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,15 +804,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -839,16 +844,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473A2E42-007B-4479-86BD-BD70B87021A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD2727D-4A98-4502-BCB6-772101FA8E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -48,14 +48,6 @@
   </si>
   <si>
     <t>ItemCount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>101,3001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4,1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -99,11 +91,65 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3001,3,113,114,107</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,1,80,8,25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FailCheckIndexList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RollbackIndexList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーチェックするステップのインデックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーチェックでエラーだった場合に移動(ロールバック)するステップのインデックス</t>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9,21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7,19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3,117,5,107,1003,1008,1009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,19,2,16,3,2,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -137,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +194,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -202,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,11 +270,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -246,13 +307,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED7907A0-E463-4F84-A5A3-C286AB3F5E0A}" name="テーブル1" displayName="テーブル1" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{ED7907A0-E463-4F84-A5A3-C286AB3F5E0A}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED7907A0-E463-4F84-A5A3-C286AB3F5E0A}" name="テーブル1" displayName="テーブル1" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{ED7907A0-E463-4F84-A5A3-C286AB3F5E0A}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{615FF43F-1044-4D2B-9BCE-712D5DA44796}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{EDBBF547-8961-4C19-813A-AA8CB0CDA5D3}" name="StepList" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{7F9C0907-3F00-40B2-B541-CB99C619C165}" name="ItemList" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7C8F48D2-09D8-4DEF-A263-E7DEEDD99A6A}" name="ItemCount" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EDBBF547-8961-4C19-813A-AA8CB0CDA5D3}" name="StepList" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7F9C0907-3F00-40B2-B541-CB99C619C165}" name="ItemList" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7C8F48D2-09D8-4DEF-A263-E7DEEDD99A6A}" name="ItemCount" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{8B0C7EC4-D1F1-4E08-BF1B-C23DE48CD260}" name="FailCheckIndexList" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{A57E33AF-4A66-4438-BE69-0A39529233EE}" name="RollbackIndexList" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -555,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CA373A-5204-463A-B9AB-C528F6DE220D}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -563,10 +626,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="105.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.5" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,34 +646,76 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -620,10 +729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76512A8B-B894-423A-86BD-720DB413CD9F}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -633,7 +742,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -643,7 +752,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -653,7 +762,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -663,7 +772,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -673,7 +782,27 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -690,6 +819,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002F05D575A7C71C4E84A77B4956DCA319" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="856dbde25e5687c921078643b2720f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95f901de96e08fa8539d13b04facf32f">
     <xsd:element name="properties">
@@ -803,15 +941,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
   <ds:schemaRefs>
@@ -828,6 +957,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B3C5EE-D255-4E0F-A081-8B494CED0A1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -841,12 +978,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD2727D-4A98-4502-BCB6-772101FA8E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5542DD9B-F27A-4839-BAA8-1DEBD1A97C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3001,3,113,114,107</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -129,14 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9,21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7,19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3,117,5,107,1003,1008,1009</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -145,11 +133,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,0</t>
+    <t>101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,0</t>
+  </si>
+  <si>
+    <t>201,202,203,204,205,206,207,208,209,210,211,212,213,214,215,216,217,218,219,220,221,0</t>
+  </si>
+  <si>
+    <t>10,22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8,20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -183,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,12 +192,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -270,7 +262,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +613,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -647,10 +639,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -658,19 +650,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -678,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -697,10 +689,10 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -710,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -787,22 +779,22 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -813,12 +805,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -827,7 +813,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002F05D575A7C71C4E84A77B4956DCA319" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="856dbde25e5687c921078643b2720f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95f901de96e08fa8539d13b04facf32f">
     <xsd:element name="properties">
@@ -941,22 +927,13 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -964,7 +941,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B3C5EE-D255-4E0F-A081-8B494CED0A1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -978,4 +955,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5542DD9B-F27A-4839-BAA8-1DEBD1A97C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA72AFD-FFCB-45B5-A615-332868225587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3,117,5,107,1003,1008,1009</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -148,6 +144,18 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10001,10002,10003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,317,318,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -613,7 +621,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -650,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -659,10 +667,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -670,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -686,13 +694,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -702,10 +710,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
@@ -805,15 +817,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002F05D575A7C71C4E84A77B4956DCA319" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="856dbde25e5687c921078643b2720f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95f901de96e08fa8539d13b04facf32f">
     <xsd:element name="properties">
@@ -927,21 +930,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B3C5EE-D255-4E0F-A081-8B494CED0A1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -957,7 +961,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -970,4 +974,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA72AFD-FFCB-45B5-A615-332868225587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898CFC26-F48A-44EB-B9FF-E5D8EB54C08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,317,318,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>501,502,503,504,505,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>401,402,403,404,405,406,407,408,409,410,411,412,413,414,415,416,417,418,419,420,421,422,423,424</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -307,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED7907A0-E463-4F84-A5A3-C286AB3F5E0A}" name="テーブル1" displayName="テーブル1" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{ED7907A0-E463-4F84-A5A3-C286AB3F5E0A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED7907A0-E463-4F84-A5A3-C286AB3F5E0A}" name="テーブル1" displayName="テーブル1" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7" xr:uid="{ED7907A0-E463-4F84-A5A3-C286AB3F5E0A}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{615FF43F-1044-4D2B-9BCE-712D5DA44796}" name="ID"/>
     <tableColumn id="2" xr3:uid="{EDBBF547-8961-4C19-813A-AA8CB0CDA5D3}" name="StepList" dataDxfId="4"/>
@@ -618,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CA373A-5204-463A-B9AB-C528F6DE220D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -720,6 +732,38 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -817,6 +861,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002F05D575A7C71C4E84A77B4956DCA319" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="856dbde25e5687c921078643b2720f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95f901de96e08fa8539d13b04facf32f">
     <xsd:element name="properties">
@@ -930,22 +989,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B3C5EE-D255-4E0F-A081-8B494CED0A1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -959,27 +1026,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898CFC26-F48A-44EB-B9FF-E5D8EB54C08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D1B396-7708-4C3F-AF9E-19B37214289B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
@@ -159,15 +159,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>501,502,503,504,505,0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10004</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>401,402,403,404,405,406,407,408,409,410,411,412,413,414,415,416,417,418,419,420,421,422,423,424</t>
+    <t>401,402,403,404,405,406,407,408,409,410,411,412,413,414,415,416,417,418,419,420,421,422,423</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>501,502,503,504,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -633,7 +633,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -738,10 +738,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -754,10 +754,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -861,18 +861,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -990,14 +990,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1008,6 +1000,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D1B396-7708-4C3F-AF9E-19B37214289B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06DBBDC-2DDE-4CDC-BC09-F20A2A88A071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,317,318,0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10004</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -168,6 +164,10 @@
   </si>
   <si>
     <t>501,502,503,504,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,317,318,319,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -633,7 +633,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
@@ -738,10 +738,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -754,10 +754,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -861,21 +861,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002F05D575A7C71C4E84A77B4956DCA319" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="856dbde25e5687c921078643b2720f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95f901de96e08fa8539d13b04facf32f">
     <xsd:element name="properties">
@@ -989,30 +974,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B3C5EE-D255-4E0F-A081-8B494CED0A1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1026,4 +1003,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06DBBDC-2DDE-4CDC-BC09-F20A2A88A071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44DCAF0-731B-42EF-A21A-06E6D06D6144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10001,10002,10003</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -168,6 +164,10 @@
   </si>
   <si>
     <t>301,302,303,304,305,306,307,308,309,310,311,312,313,314,315,316,317,318,319,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -633,7 +633,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -706,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
@@ -722,13 +722,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -738,10 +738,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -754,10 +754,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -975,18 +975,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1006,14 +1006,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1026,4 +1018,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config/Excel/Guide.xlsx
+++ b/Config/Excel/Guide.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44DCAF0-731B-42EF-A21A-06E6D06D6144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FEE2DF-0FEB-455F-9C5D-05B5665F3886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40374599-DF30-4619-8495-10EE6A13D459}"/>
   </bookViews>
@@ -167,7 +167,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,0</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -201,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +212,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -266,7 +272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +289,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,7 +642,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -705,7 +714,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -861,6 +870,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002F05D575A7C71C4E84A77B4956DCA319" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="856dbde25e5687c921078643b2720f59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95f901de96e08fa8539d13b04facf32f">
     <xsd:element name="properties">
@@ -974,22 +998,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6B3C5EE-D255-4E0F-A081-8B494CED0A1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1003,27 +1035,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F0AE0-DC02-4624-B31B-D5B113AB13A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36EAF650-72EB-4F7E-91E7-0C04023C8D61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>